--- a/data/hotels_by_city/Houston/Houston_shard_186.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_186.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="510">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108004-Reviews-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
   </si>
   <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Days-Inn-Suites-By-Wyndham-Houston-NorthFM-1960.h280913.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1410 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r577464491-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108004</t>
+  </si>
+  <si>
+    <t>577464491</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Loved our big room!</t>
+  </si>
+  <si>
+    <t>So nice to have so much room to stretch out in, some rooms leave me feeling a little claustrophobic, but not here. Restaurants in walking distance, nice laundry room. Front desk ppl are very pleasant and special thanks to Raksha Patel, General Manager, for her big smile and welcoming attitude. Wonderful housekeeping team as well!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r576151176-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576151176</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent Visit</t>
+  </si>
+  <si>
+    <t>Our stay was quiet, clean, and very comfortable. For the price and area we stayed, we were really impressed. The continental breakfast was very enjoyable and a great start to our day. Will be returning!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r570571458-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570571458</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Mini Vacation</t>
+  </si>
+  <si>
+    <t>We had a Great Experience if I have to go to HTown this will be my hone during time. Friwbdlt staff abd very clean.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r554277032-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554277032</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r551803196-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551803196</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. Owner is so accommodating and polite.</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. Owner is so accommodating and polite. Hotel was clean and our home away from home for months</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r547213244-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547213244</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r543035329-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543035329</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r540466191-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540466191</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r540282005-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540282005</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Quite Disappointed!</t>
+  </si>
+  <si>
+    <t>My sister stayed at the hotel for a week before I got there while waiting to move into her new home. The breakfast was pretty good but stop there! The night I checked in I needed a toothbrush. No one at desk! I needed change. No one at desk. I needed towels. No one at desk. Each time o had to wait and wait. Then once desk clerk “appeared” helpful was not her choice. After three days of no questions with no answers I chose to leave instead. The room my sister was in went three days with NO room service. Trash overflowed. Towels stacked up on floor. No replenished toiletries...just not a good choice with so many other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>My sister stayed at the hotel for a week before I got there while waiting to move into her new home. The breakfast was pretty good but stop there! The night I checked in I needed a toothbrush. No one at desk! I needed change. No one at desk. I needed towels. No one at desk. Each time o had to wait and wait. Then once desk clerk “appeared” helpful was not her choice. After three days of no questions with no answers I chose to leave instead. The room my sister was in went three days with NO room service. Trash overflowed. Towels stacked up on floor. No replenished toiletries...just not a good choice with so many other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r536188013-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536188013</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r518380570-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518380570</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I found my stay at Days Inn on 1960 to be very relaxing.  The staff was most helpful and friendly.  The room was spacious and clean.  Parking was convenient and access was easy. Breakfast was delicious and a variety of food was available.  The price of the room was a bargain.  I would recommend this Days Inn to anyone.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r511001299-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511001299</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Horible customer service . The man and old woman in the office are liers and the rooms have bed bugs and roaches!</t>
+  </si>
+  <si>
+    <t>The woman in the office older lady is a lier to the police . My room had bed bugs and roaches. When i asked if i could have a refund it was a rude response. Also when i was leaving the room (Withhout my refund) i left my iphone 7 Plus in the room on the table because i was in a rush. When i returned to get it i had to call the police just to see if it was in he room by that time it was already stolen by one of the employees. This was the worse customer service ive recived from any hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r489161211-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489161211</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Could be much better</t>
+  </si>
+  <si>
+    <t>This place is about 30 mins drive from downtown. the room is spacious clean and nice but the AC was not working properly and they gave us a big loud noisy fan that we couldn't sleep well that night. staff are friendly and welcoming. Their breakfast was very limited and no hot meal. overall for this price. there are absolutely better places available.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r488276083-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488276083</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r475856408-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475856408</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r471899923-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471899923</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r471259757-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471259757</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r470827956-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470827956</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r465410364-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465410364</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've stayed here before and I love the location. I wanted the suite because I thought it had a pull out couch but this time it didn't. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r463504273-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463504273</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r461596416-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461596416</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Clean, safe and very friendly staff</t>
+  </si>
+  <si>
+    <t>We have chosen this Days Inn because of the ratings from Tripadvisor. And it was a good choice. We had a warm welcome and got our room very quickly. It was clean and equipped with a fridge, microwave and tv. Everything worked well and the place seemed to be safe. Our bed was comfortable. The breakfast is ok and staff is very mindful. We will come back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r452182214-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452182214</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r450126344-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450126344</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r442757294-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442757294</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r426519432-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426519432</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Always a pleasure</t>
+  </si>
+  <si>
+    <t>Several stays at this hotel for business trips in the area, and I always have good or great stays.  Staff is wonderful and most recognize me.  Rooms are large and comfortable and adequate for my needs with a desk, lamps and multiple outlets.  Breakfast is fair.  For me, this place is a winner.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r423575772-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423575772</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r413673375-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413673375</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r390112952-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390112952</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Days Inn 1960</t>
+  </si>
+  <si>
+    <t>It did not look the way it did in the pictures. Room had a funny smell. Pool was tiny and closed. The clerk was very nice though.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r389464569-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389464569</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Great night</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay. Location was kind of tight but overall a great room for the rest that I was seeking. Bed felt like it was pillow top. and it was quiet even tho its in a busy location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r383758696-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383758696</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>best secret in Houston</t>
+  </si>
+  <si>
+    <t>I have been staying here maybe 10 yearsand do enjoy it. The rooms have been recently updated and are nice. Breakfast is your typical hotel fare- not a 5 star breskfast but gets you going. This place is the best managed hotel of this category anywhere that I have ever stayed and I travel a lot. Next door to a Waffle House-not the best butconvenient and gives discount for hotel guests. Parking is not the easiest to get into, BUT, I always feel safe in this hotel. I always stay here when I am in N Hou.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r373395315-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373395315</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better complimentary breakfast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for 4 nights it was nice hotel the staff was friendly. The only complaint is the complimentary breakfast this is the first hotel that I visited that didn't have a waffle maker or any hot food. They need better variety of fruits. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r371046931-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371046931</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r365415331-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365415331</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Very nice people, great service, great location for my drive to work.The bed could be a little firmer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r359435174-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359435174</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Comfortable beds and very clean room.</t>
+  </si>
+  <si>
+    <t>The bed was very comfortable and we liked having a refrigerator and couch.  The WIFI was also fairly efficient.  Hotel staff were friendly and very helpful.  The breakfast was plain, but the breakfast area was very well maintained.  The hotel manager parked in the handicapped spot, if tho a handicapped plates or plaquard were not displayed.  I am handicapped, and this caused us to park in a smaller space, which was difficult to unload my wheelchair.  Mentioned this to them, and was told if we needed the space to let them know.  However, this defeats the purpose.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r354461200-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354461200</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r353859242-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353859242</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r350657482-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350657482</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>My hotel stay was good !!It was just a lot of people...</t>
+  </si>
+  <si>
+    <t>My hotel stay was good !!It was just a lot of people smoking drugs in there car or on the balcony of</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r349211862-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349211862</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>High Value in the city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Motel has some age but the cleanliness of the rooms, quality bedding, and high value of set this very quickly. This Motel is minutes from the GW Bush Airport and highly recommended for weary travellers whom do not want to drive too far on arrival. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r348996595-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348996595</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r335748109-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335748109</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Family for the Holidays!</t>
+  </si>
+  <si>
+    <t>Neat and Clean accommodations. Friendly staff and great location. Easy access to I-45 and Spring Texas Community.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r334195081-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334195081</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Work Week stay in Houston</t>
+  </si>
+  <si>
+    <t>My stay at the Days Inn Hotel was great, affordable and clean.I was able to get the rest and relaxation that was needed for me to complete my weekly assignment in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r331136884-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331136884</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r325578231-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325578231</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r320499533-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320499533</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel and nice staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recommend this hotel all people,very nice staff, very comfortable rooms and service. I will remember about this hotel.    </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r318308200-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318308200</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Best Hotel in Houston North</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. The owner &amp; staff are more than wiling to accommadate  anything needed including special needs. Cofe is always available in office, a mandatory for me, as well as in rooms. Rooms are clean &amp; spacious. Hot tub rooms are very large, hot tubs cleaned thoroughly. This is a place that makes you fell welcome and at home. I always stay here when in Houston</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r315038711-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315038711</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r306471435-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306471435</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>We had a great stay here while looking for a home to transition to within Houston. Rooms appeared clean.  There is a 15% discount for the waffle house next door. But our last night the disturbance of peace  from the waffle house at 0200 was just ridiculous: motorcycles sounded like they were on a raceway and women screaming. I almost called the police thinking someone was being killed.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r301307570-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301307570</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>Nice hotel with very pleasant staff.  Rooms were clean but could use some update/repairs.  TV worked, air conditioner worked, room was clean, beds were comfortable and we would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r280660596-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280660596</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r275491504-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275491504</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Huge, clean room</t>
+  </si>
+  <si>
+    <t>Nice 'sitting' area, then a half wall, sleeping area with TV, fridge, dresser; and then the bathroom area. Very clean, up-dated room. The parking lot is pretty narrow, so backing out of our parking space was a little slow.  Would stay there again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r274092124-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274092124</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Houston Lonestar load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place.  Felt secure and had no evidence of unauthorized persons on location.  Room was good and comfy.  There were no hot breakfast items offered but I usually pass on the waffles usually found.  Coffee was good and clerk made some afternoon coffee when I checked in at 4 ish.  I'll stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r270834954-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270834954</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r267633860-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267633860</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>remodeled rooms - NOT !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although convenient location,  tired rooms with a new coat of paint do not qualify as being remodeled. And the mattress in my room. ..well, was just terrible. I do not recommend this motel. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r266501452-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266501452</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Excellent Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here 18 days.. The hotel is newly renovated. It is a standard room, nothing fancy but my stay was quiet and it served my needs. The manager is quite knowledgeable about the area and helpful.. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r261279135-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261279135</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r260399611-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260399611</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>For what it is, it's pretty good</t>
+  </si>
+  <si>
+    <t>The Days Inn on FM 1960 is a low price, two star motel that offers no frills, basic, economy accommodations. This is not the Ritz-Carlton or Mandalay Bay, it's a straight-forward motel that caters to people who don't want to spend a lot on a hotel room. And, given that contextualization, this Days Inn is pretty good for what it is. 
+As previously described, the driveway is a somewhat hard to identify from the street as the hotel is a bit back from the street and a little bit obscured by a Waffle House, which is situated right before the Days Inn. As such, we missed the driveway when first arriving and had to circle back. 
+Once we arrived, in the mid-afternoon on a Friday, we had no issues checking in - the whole process took about 5 minutes, as the man at the desk seemed to be expecting us (we had pre-paid through a booking website.) 
+The motel itself is a two story building with room doors opening out into the parking lot (first floor) or balcony walkway (second floor.) The doors are standard keycard entry, and as previously noted the carpet in the room makes them a little hard to open. The rooms themselves are on the larger side for a motel, with a little seating area with a couch just inside the door separated from the bed and sleeping area by a partial waist-high wall. There is...The Days Inn on FM 1960 is a low price, two star motel that offers no frills, basic, economy accommodations. This is not the Ritz-Carlton or Mandalay Bay, it's a straight-forward motel that caters to people who don't want to spend a lot on a hotel room. And, given that contextualization, this Days Inn is pretty good for what it is. As previously described, the driveway is a somewhat hard to identify from the street as the hotel is a bit back from the street and a little bit obscured by a Waffle House, which is situated right before the Days Inn. As such, we missed the driveway when first arriving and had to circle back. Once we arrived, in the mid-afternoon on a Friday, we had no issues checking in - the whole process took about 5 minutes, as the man at the desk seemed to be expecting us (we had pre-paid through a booking website.) The motel itself is a two story building with room doors opening out into the parking lot (first floor) or balcony walkway (second floor.) The doors are standard keycard entry, and as previously noted the carpet in the room makes them a little hard to open. The rooms themselves are on the larger side for a motel, with a little seating area with a couch just inside the door separated from the bed and sleeping area by a partial waist-high wall. There is a refrigerator and microwave, as well as a flatscreen TV, coffee maker, and iron and ironing board. Our bathroom was sizeable (we had a handicapped-accessible room). The room and particularly the bathroom were not in great shape with regard to upkeep, but everything worked (including the iron and coffee maker.) The free breakfast was certainly adequate, with fresh-brewed coffee, a passable assortment of bagels and bread (and prepackaged peanut butter, jelly, and butter) and some cereals. There were some containers of yogurt as well. Nothing fancy, but something to have to start the day. The WiFi was free, fast and reliable - we had no internet issues at all. A couple of negatives about this motel included the lack of a fitness room (not a surprise given its a budget hotel, but even a room with a treadmill and an elliptical machine would have been great.) In addition, there was a moderate leak in the ceiling that while aesthetically concerning, didn't actually affect our stay or comfort. The walls are indeed thin, but our neighbor stopped watching TV before midnight and nobody was revving their engines in the parking lot, so we had no issues sleeping. Finally, while they did a great job of making the bed and replacing linens on a daily basis, the coffee making supplies were not replaced by the housekeeping service. Overall, however, for what it is as a low-priced, economy motel, the Days Inn on FM1960 is pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Days Inn on FM 1960 is a low price, two star motel that offers no frills, basic, economy accommodations. This is not the Ritz-Carlton or Mandalay Bay, it's a straight-forward motel that caters to people who don't want to spend a lot on a hotel room. And, given that contextualization, this Days Inn is pretty good for what it is. 
+As previously described, the driveway is a somewhat hard to identify from the street as the hotel is a bit back from the street and a little bit obscured by a Waffle House, which is situated right before the Days Inn. As such, we missed the driveway when first arriving and had to circle back. 
+Once we arrived, in the mid-afternoon on a Friday, we had no issues checking in - the whole process took about 5 minutes, as the man at the desk seemed to be expecting us (we had pre-paid through a booking website.) 
+The motel itself is a two story building with room doors opening out into the parking lot (first floor) or balcony walkway (second floor.) The doors are standard keycard entry, and as previously noted the carpet in the room makes them a little hard to open. The rooms themselves are on the larger side for a motel, with a little seating area with a couch just inside the door separated from the bed and sleeping area by a partial waist-high wall. There is...The Days Inn on FM 1960 is a low price, two star motel that offers no frills, basic, economy accommodations. This is not the Ritz-Carlton or Mandalay Bay, it's a straight-forward motel that caters to people who don't want to spend a lot on a hotel room. And, given that contextualization, this Days Inn is pretty good for what it is. As previously described, the driveway is a somewhat hard to identify from the street as the hotel is a bit back from the street and a little bit obscured by a Waffle House, which is situated right before the Days Inn. As such, we missed the driveway when first arriving and had to circle back. Once we arrived, in the mid-afternoon on a Friday, we had no issues checking in - the whole process took about 5 minutes, as the man at the desk seemed to be expecting us (we had pre-paid through a booking website.) The motel itself is a two story building with room doors opening out into the parking lot (first floor) or balcony walkway (second floor.) The doors are standard keycard entry, and as previously noted the carpet in the room makes them a little hard to open. The rooms themselves are on the larger side for a motel, with a little seating area with a couch just inside the door separated from the bed and sleeping area by a partial waist-high wall. There is a refrigerator and microwave, as well as a flatscreen TV, coffee maker, and iron and ironing board. Our bathroom was sizeable (we had a handicapped-accessible room). The room and particularly the bathroom were not in great shape with regard to upkeep, but everything worked (including the iron and coffee maker.) The free breakfast was certainly adequate, with fresh-brewed coffee, a passable assortment of bagels and bread (and prepackaged peanut butter, jelly, and butter) and some cereals. There were some containers of yogurt as well. Nothing fancy, but something to have to start the day. The WiFi was free, fast and reliable - we had no internet issues at all. A couple of negatives about this motel included the lack of a fitness room (not a surprise given its a budget hotel, but even a room with a treadmill and an elliptical machine would have been great.) In addition, there was a moderate leak in the ceiling that while aesthetically concerning, didn't actually affect our stay or comfort. The walls are indeed thin, but our neighbor stopped watching TV before midnight and nobody was revving their engines in the parking lot, so we had no issues sleeping. Finally, while they did a great job of making the bed and replacing linens on a daily basis, the coffee making supplies were not replaced by the housekeeping service. Overall, however, for what it is as a low-priced, economy motel, the Days Inn on FM1960 is pretty good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r259312269-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259312269</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>My stay was a pleasant one.. The hotel manager was...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay was a pleasant one.. The hotel manager was wonderful but the hotel was not what I was accustomed to. It was a great location to where we was visiting. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r257171272-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257171272</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Worst hotel I've stayed at in a long time.  I moved out of this location two days into a five night stay and found another hotel to stay at.  First off, the location is difficult to get into and out of, being located on a major highway.  I checked in at around 7:30 PM on a weeknight and the lobby was already locked up--I had to use the night registration window, which I found suspicious for being so early in the evening.  Exterior of the hotel was in need of major upgrade.  The room was spacious enough, but the carpet made the door difficult to open.  The room seemed clean enough at first, and the bed was comfortable, but there was a cigarette burn on the blanket.  The refrigerator was less than spotless, and on the second day when I opened the microwave I was so horrified at the cleanliness of it (or lack thereof) that I ate my food cold rather than put it in the microwave.  The breakfast room was tiny and the food rather sparse.  The final straw was the paper-thin walls and the talking and carrying-on all night of other guests on the balcony and in the adjacent parking lot that kept me up until past 2 AM.  I immediately booked another hotel in the middle of the night and moved out when morning came.  The wifi was free and fast.  The front desk clerk seemed...Worst hotel I've stayed at in a long time.  I moved out of this location two days into a five night stay and found another hotel to stay at.  First off, the location is difficult to get into and out of, being located on a major highway.  I checked in at around 7:30 PM on a weeknight and the lobby was already locked up--I had to use the night registration window, which I found suspicious for being so early in the evening.  Exterior of the hotel was in need of major upgrade.  The room was spacious enough, but the carpet made the door difficult to open.  The room seemed clean enough at first, and the bed was comfortable, but there was a cigarette burn on the blanket.  The refrigerator was less than spotless, and on the second day when I opened the microwave I was so horrified at the cleanliness of it (or lack thereof) that I ate my food cold rather than put it in the microwave.  The breakfast room was tiny and the food rather sparse.  The final straw was the paper-thin walls and the talking and carrying-on all night of other guests on the balcony and in the adjacent parking lot that kept me up until past 2 AM.  I immediately booked another hotel in the middle of the night and moved out when morning came.  The wifi was free and fast.  The front desk clerk seemed apologetic enough.  This is one of the lower priced hotels in the area, and might be okay for a quick overnight stay, but I would suggest paying a little more and avoiding this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Worst hotel I've stayed at in a long time.  I moved out of this location two days into a five night stay and found another hotel to stay at.  First off, the location is difficult to get into and out of, being located on a major highway.  I checked in at around 7:30 PM on a weeknight and the lobby was already locked up--I had to use the night registration window, which I found suspicious for being so early in the evening.  Exterior of the hotel was in need of major upgrade.  The room was spacious enough, but the carpet made the door difficult to open.  The room seemed clean enough at first, and the bed was comfortable, but there was a cigarette burn on the blanket.  The refrigerator was less than spotless, and on the second day when I opened the microwave I was so horrified at the cleanliness of it (or lack thereof) that I ate my food cold rather than put it in the microwave.  The breakfast room was tiny and the food rather sparse.  The final straw was the paper-thin walls and the talking and carrying-on all night of other guests on the balcony and in the adjacent parking lot that kept me up until past 2 AM.  I immediately booked another hotel in the middle of the night and moved out when morning came.  The wifi was free and fast.  The front desk clerk seemed...Worst hotel I've stayed at in a long time.  I moved out of this location two days into a five night stay and found another hotel to stay at.  First off, the location is difficult to get into and out of, being located on a major highway.  I checked in at around 7:30 PM on a weeknight and the lobby was already locked up--I had to use the night registration window, which I found suspicious for being so early in the evening.  Exterior of the hotel was in need of major upgrade.  The room was spacious enough, but the carpet made the door difficult to open.  The room seemed clean enough at first, and the bed was comfortable, but there was a cigarette burn on the blanket.  The refrigerator was less than spotless, and on the second day when I opened the microwave I was so horrified at the cleanliness of it (or lack thereof) that I ate my food cold rather than put it in the microwave.  The breakfast room was tiny and the food rather sparse.  The final straw was the paper-thin walls and the talking and carrying-on all night of other guests on the balcony and in the adjacent parking lot that kept me up until past 2 AM.  I immediately booked another hotel in the middle of the night and moved out when morning came.  The wifi was free and fast.  The front desk clerk seemed apologetic enough.  This is one of the lower priced hotels in the area, and might be okay for a quick overnight stay, but I would suggest paying a little more and avoiding this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r252569682-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252569682</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay. Older units but clean. Noise from other guest outside was annoying but stopped by midnight  </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r252303040-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252303040</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r244279605-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244279605</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>A Gem of a Hotel</t>
+  </si>
+  <si>
+    <t>I stay at over 150 hotels a year and this is one of the best. It was a great surprise to get a great room at a great price for all of the amenities you receive. There were no hidden charges like, safe fees, resort fees, telephone access fee, internet fees and etc. The price you get is the you you reserve there. Great friendly staff and a quiet suite with relaxation on your mind.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r241753149-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241753149</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r241329863-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241329863</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r234606302-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234606302</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Clean rooms with friendly staff</t>
+  </si>
+  <si>
+    <t>The room was very clean and the staff, including management, were incredibly nice and accommodating to our needs! Would stay here again if in the area!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r229539275-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229539275</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>there was not enough parking and the breakfast was horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Review      Poor parking area was not able to park work trailer and barely enough room to turn trailer around </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r226309779-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226309779</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>price is what you would expect. Clean welcoming lobby. friendly front staff. spacious rooms. comfortable beds.Tv and sitting area is separate from the sleeping area so one can sleep without being disturbed. breakfast has variety and is well presented. out door swimming pool is nice. close to lots of great restaurants, many within walking distance. easy highway access .will  stay here again</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r213091134-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213091134</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r212167487-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212167487</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r211899686-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211899686</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r209192696-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209192696</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this hotel before. Whenever I am in Houston This location is always where I stay. The staff is very friendly. Raksha Patel the general manager is very good and always remembers me. So does Ann. I recommend this location. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r209008115-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209008115</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Good Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was mis-booked for a smoking room.  The manager approved an upgrade to a less used smoking room with king bed and in-room jaccuzi.  It was an acceptable trade-off.  Exiting left from the property on a busy road to access the freeway was a bit challenging.  Next door was a Waffle House restaurant, and across the street was a lower-priced gas station.  Lots of restaurant choices along the I-45 corridor. </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r206796893-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206796893</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Just adequate</t>
+  </si>
+  <si>
+    <t>Disappointed in the overall appearance of the hotel ~ not what we have experienced at other Days Inn.  The carpet was quite dirty ~ suggest wearing flip flops/slippers.  Wifi was spotty during the afternoon we arrived but much better later in the evening and the next morning.  Did not use the pool but noticed just two lounges and two tables with a few chairs.  Would not stay here again.  It was close to Cynthia Mitchell Pavilion for a concert.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r195949719-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195949719</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r190080345-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190080345</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r188616573-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188616573</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r175500132-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175500132</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r174754248-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174754248</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Very Nice - Excellent Value</t>
+  </si>
+  <si>
+    <t>Found this to be a very nice place. The girl behind the desk (Ann) is very helpful. My room was spacious and  very clean. No truck parking but I'd recommend it for the price.Furniture is in good shape, a/c in good working condition.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r172727607-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172727607</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r166826731-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166826731</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r166539071-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166539071</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Great price for a good value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The price was great, The room was big and clean. I didn't think I would like it, when we pulled up there was a homeless man and some dogs at the front, but it turned out nice and quiet. The is a restaurant next door and other store close by. The only down part the pool was not open "it needed to be clean" and the breakfast need a little work. I would stay here again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r165959491-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165959491</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r163100338-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163100338</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r162899646-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162899646</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r162425433-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162425433</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r160940819-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160940819</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>The room was okay. The location of the hotel was great. It...</t>
+  </si>
+  <si>
+    <t>The room was okay. The location of the hotel was great. It is location near where we visit in Houston all the time. I like the location best and I like the breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r160707667-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160707667</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Clean and good WiFi</t>
+  </si>
+  <si>
+    <t>Spacious room with 2 queens and sofa bed.  Clean and comfortable.  WiFi connection was fast.  Bathroom door rubbed on floor.  Breakfast selection was modest, but had fruit.  Convenient freeway access with plenty of restaurants close.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r159975681-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159975681</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>After our long haul flight arriving at the end of the afternoon this hotel was a good place to spend the first night of our vacation. The suite room was very spacious and had a nice bubble bath and a very comfortable bed. There are plenty of average low budget restaurant in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r151107428-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151107428</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r149866163-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149866163</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r149114293-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149114293</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Just Average</t>
+  </si>
+  <si>
+    <t>The lobby closed early in the evening, and getting coffee after the morning was a joke.  Not much of a breakfast selection either.  On one day, the front desk clerk ignored the lack of cups and coffee.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r147599696-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147599696</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r145606918-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145606918</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r143855301-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143855301</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r142512514-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142512514</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r142141794-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142141794</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>October Houston Trip</t>
+  </si>
+  <si>
+    <t>Have stayed here many times.  Service is always very good.  Had Internet and tv issues, but they were resolved.  Wish they would upgrade tvs to a flat screen.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r137446476-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137446476</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>clean, good price</t>
+  </si>
+  <si>
+    <t>We stayed one night during our summer holidays in september 2011. The room was clean and the stuff at the desk was very friendly and helpful. The rooms are wide, with tv and very nice bathroom. There is a nice pool and a spa but we didn't use. Breakfast is fine, regular in that kind of hotels. Generally, very very kind staff and generally there's nothing to complain about.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r120438344-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120438344</t>
+  </si>
+  <si>
+    <t>11/10/2011</t>
+  </si>
+  <si>
+    <t>Clean, helpful staff, excellent facilities for travelers</t>
+  </si>
+  <si>
+    <t>I was upgraded to a palatial room: kitchenette w immaculate frig, microwave, sink, coffeemaker,   dishes, dishwasher  - suddenly I can't remember if there was a stove - small table &amp; chairs, also a counter area with stools - bathroom with ample counter space. Bed was comfortable, plenty of light in room where needed. Next door was a workout room with basic cardio equipment, and next to it a laundry area. The pool looked inviting when I arrived, but I did not have time to swim.The lobby area had pleasant space for a generous breakfast, including a wide variety of choices. For dinner the evening I arrived, the staff steered me to the place best suited to my wishes. There is not a big selection of restaurants in the area, but enough to meet the needs for the arrival evening of most travelers.I will book this inn on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I was upgraded to a palatial room: kitchenette w immaculate frig, microwave, sink, coffeemaker,   dishes, dishwasher  - suddenly I can't remember if there was a stove - small table &amp; chairs, also a counter area with stools - bathroom with ample counter space. Bed was comfortable, plenty of light in room where needed. Next door was a workout room with basic cardio equipment, and next to it a laundry area. The pool looked inviting when I arrived, but I did not have time to swim.The lobby area had pleasant space for a generous breakfast, including a wide variety of choices. For dinner the evening I arrived, the staff steered me to the place best suited to my wishes. There is not a big selection of restaurants in the area, but enough to meet the needs for the arrival evening of most travelers.I will book this inn on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r114887689-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114887689</t>
+  </si>
+  <si>
+    <t>06/29/2011</t>
+  </si>
+  <si>
+    <t>Good deal for the money</t>
+  </si>
+  <si>
+    <t>Great room which was larger than expected having a sitting area with sofa and coffee table in addition to the standard double beds, etc. Bed was not very comfy and AC took a long time to cool off. Nice clean pool and free breakfast in the morning plus a discount at the Waffle House across the parking lot. Not great but worth the money since our stay only cost $57 for the night before catching a flight at the airport.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108004-r110743839-Days_Inn_Suites_by_Wyndham_Houston_North_FM_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>110743839</t>
+  </si>
+  <si>
+    <t>05/31/2011</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>This hotel is an unexpected Gem...  Very convenient, clean, updated, quiet.  Short walk to Denny's for dinner.  Free breakfast including waffles in the shape of Texas!  Breakfast could have been better managed.  Eggs and hash brown containers were either empty or cold.  I booked using booking.com and got a good rate.  On return trip I called directly to see if they would honor previous rate and they did.  Friendly, helpful staff.  will pick up and deliver to airport.  HOWEVER, you will need to take the hotel's phone number as it isn't listed on the phone bank for pick up calls...</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1945,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1977,6344 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>180</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J33" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>201</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J34" t="s">
+        <v>204</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" t="s">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s">
+        <v>210</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>218</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" t="s">
+        <v>221</v>
+      </c>
+      <c r="K38" t="s">
+        <v>222</v>
+      </c>
+      <c r="L38" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>211</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>225</v>
+      </c>
+      <c r="J39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" t="s">
+        <v>228</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>211</v>
+      </c>
+      <c r="O39" t="s">
+        <v>152</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>211</v>
+      </c>
+      <c r="O40" t="s">
+        <v>152</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" t="s">
+        <v>235</v>
+      </c>
+      <c r="L41" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>237</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" t="s">
+        <v>240</v>
+      </c>
+      <c r="K42" t="s">
+        <v>241</v>
+      </c>
+      <c r="L42" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>237</v>
+      </c>
+      <c r="O42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>244</v>
+      </c>
+      <c r="J43" t="s">
+        <v>245</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>248</v>
+      </c>
+      <c r="J44" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>246</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" t="s">
+        <v>260</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>255</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>262</v>
+      </c>
+      <c r="J47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>264</v>
+      </c>
+      <c r="O47" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" t="s">
+        <v>267</v>
+      </c>
+      <c r="K48" t="s">
+        <v>268</v>
+      </c>
+      <c r="L48" t="s">
+        <v>269</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>271</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" t="s">
+        <v>273</v>
+      </c>
+      <c r="K49" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49" t="s">
+        <v>275</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>270</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>277</v>
+      </c>
+      <c r="J50" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>279</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>281</v>
+      </c>
+      <c r="J51" t="s">
+        <v>282</v>
+      </c>
+      <c r="K51" t="s">
+        <v>283</v>
+      </c>
+      <c r="L51" t="s">
+        <v>284</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>285</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>287</v>
+      </c>
+      <c r="J52" t="s">
+        <v>288</v>
+      </c>
+      <c r="K52" t="s">
+        <v>289</v>
+      </c>
+      <c r="L52" t="s">
+        <v>290</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>285</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>292</v>
+      </c>
+      <c r="J53" t="s">
+        <v>293</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>285</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>295</v>
+      </c>
+      <c r="J54" t="s">
+        <v>296</v>
+      </c>
+      <c r="K54" t="s">
+        <v>297</v>
+      </c>
+      <c r="L54" t="s">
+        <v>298</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>299</v>
+      </c>
+      <c r="O54" t="s">
+        <v>109</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>301</v>
+      </c>
+      <c r="J55" t="s">
+        <v>302</v>
+      </c>
+      <c r="K55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L55" t="s">
+        <v>304</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>305</v>
+      </c>
+      <c r="O55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>307</v>
+      </c>
+      <c r="J56" t="s">
+        <v>308</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>305</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>310</v>
+      </c>
+      <c r="J57" t="s">
+        <v>311</v>
+      </c>
+      <c r="K57" t="s">
+        <v>312</v>
+      </c>
+      <c r="L57" t="s">
+        <v>313</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>305</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" t="s">
+        <v>317</v>
+      </c>
+      <c r="K58" t="s">
+        <v>318</v>
+      </c>
+      <c r="L58" t="s">
+        <v>319</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>305</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>321</v>
+      </c>
+      <c r="J59" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" t="s">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s">
+        <v>324</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>325</v>
+      </c>
+      <c r="O59" t="s">
+        <v>109</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>328</v>
+      </c>
+      <c r="J60" t="s">
+        <v>329</v>
+      </c>
+      <c r="K60" t="s">
+        <v>330</v>
+      </c>
+      <c r="L60" t="s">
+        <v>331</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>332</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>334</v>
+      </c>
+      <c r="J61" t="s">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>332</v>
+      </c>
+      <c r="O61" t="s">
+        <v>109</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>336</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>337</v>
+      </c>
+      <c r="J62" t="s">
+        <v>338</v>
+      </c>
+      <c r="K62" t="s">
+        <v>339</v>
+      </c>
+      <c r="L62" t="s">
+        <v>340</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>341</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>343</v>
+      </c>
+      <c r="J63" t="s">
+        <v>344</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>345</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>346</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>347</v>
+      </c>
+      <c r="J64" t="s">
+        <v>348</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>345</v>
+      </c>
+      <c r="O64" t="s">
+        <v>109</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>349</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>350</v>
+      </c>
+      <c r="J65" t="s">
+        <v>351</v>
+      </c>
+      <c r="K65" t="s">
+        <v>352</v>
+      </c>
+      <c r="L65" t="s">
+        <v>353</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>354</v>
+      </c>
+      <c r="O65" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>355</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>356</v>
+      </c>
+      <c r="J66" t="s">
+        <v>357</v>
+      </c>
+      <c r="K66" t="s">
+        <v>358</v>
+      </c>
+      <c r="L66" t="s">
+        <v>359</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>360</v>
+      </c>
+      <c r="O66" t="s">
+        <v>152</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>362</v>
+      </c>
+      <c r="J67" t="s">
+        <v>363</v>
+      </c>
+      <c r="K67" t="s">
+        <v>364</v>
+      </c>
+      <c r="L67" t="s">
+        <v>365</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>366</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>367</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>368</v>
+      </c>
+      <c r="J68" t="s">
+        <v>369</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>370</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>371</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>372</v>
+      </c>
+      <c r="J69" t="s">
+        <v>373</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>370</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>374</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>375</v>
+      </c>
+      <c r="J70" t="s">
+        <v>376</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>370</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>377</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>378</v>
+      </c>
+      <c r="J71" t="s">
+        <v>379</v>
+      </c>
+      <c r="K71" t="s">
+        <v>268</v>
+      </c>
+      <c r="L71" t="s">
+        <v>380</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>370</v>
+      </c>
+      <c r="O71" t="s">
+        <v>76</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>381</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>382</v>
+      </c>
+      <c r="J72" t="s">
+        <v>383</v>
+      </c>
+      <c r="K72" t="s">
+        <v>384</v>
+      </c>
+      <c r="L72" t="s">
+        <v>385</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>386</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>388</v>
+      </c>
+      <c r="J73" t="s">
+        <v>389</v>
+      </c>
+      <c r="K73" t="s">
+        <v>390</v>
+      </c>
+      <c r="L73" t="s">
+        <v>391</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>386</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>392</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>393</v>
+      </c>
+      <c r="J74" t="s">
+        <v>394</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>395</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>396</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>397</v>
+      </c>
+      <c r="J75" t="s">
+        <v>398</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>399</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>400</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>401</v>
+      </c>
+      <c r="J76" t="s">
+        <v>402</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>399</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>403</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>404</v>
+      </c>
+      <c r="J77" t="s">
+        <v>405</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>406</v>
+      </c>
+      <c r="O77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>407</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>408</v>
+      </c>
+      <c r="J78" t="s">
+        <v>409</v>
+      </c>
+      <c r="K78" t="s">
+        <v>410</v>
+      </c>
+      <c r="L78" t="s">
+        <v>411</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>406</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>412</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>413</v>
+      </c>
+      <c r="J79" t="s">
+        <v>414</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>406</v>
+      </c>
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>415</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>416</v>
+      </c>
+      <c r="J80" t="s">
+        <v>417</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>418</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>419</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>420</v>
+      </c>
+      <c r="J81" t="s">
+        <v>421</v>
+      </c>
+      <c r="K81" t="s">
+        <v>422</v>
+      </c>
+      <c r="L81" t="s">
+        <v>423</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>424</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>425</v>
+      </c>
+      <c r="J82" t="s">
+        <v>426</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s">
+        <v>122</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>427</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>428</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>429</v>
+      </c>
+      <c r="J83" t="s">
+        <v>430</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>427</v>
+      </c>
+      <c r="O83" t="s">
+        <v>152</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>431</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>432</v>
+      </c>
+      <c r="J84" t="s">
+        <v>433</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>434</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>435</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>436</v>
+      </c>
+      <c r="J85" t="s">
+        <v>437</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>434</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>438</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>439</v>
+      </c>
+      <c r="J86" t="s">
+        <v>440</v>
+      </c>
+      <c r="K86" t="s">
+        <v>441</v>
+      </c>
+      <c r="L86" t="s">
+        <v>442</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>434</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>443</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>444</v>
+      </c>
+      <c r="J87" t="s">
+        <v>445</v>
+      </c>
+      <c r="K87" t="s">
+        <v>446</v>
+      </c>
+      <c r="L87" t="s">
+        <v>447</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>434</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>448</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>449</v>
+      </c>
+      <c r="J88" t="s">
+        <v>450</v>
+      </c>
+      <c r="K88" t="s">
+        <v>451</v>
+      </c>
+      <c r="L88" t="s">
+        <v>452</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>434</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>453</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>454</v>
+      </c>
+      <c r="J89" t="s">
+        <v>455</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s">
+        <v>122</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>456</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>457</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>458</v>
+      </c>
+      <c r="J90" t="s">
+        <v>459</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>456</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>460</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>461</v>
+      </c>
+      <c r="J91" t="s">
+        <v>462</v>
+      </c>
+      <c r="K91" t="s">
+        <v>463</v>
+      </c>
+      <c r="L91" t="s">
+        <v>464</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>465</v>
+      </c>
+      <c r="O91" t="s">
+        <v>152</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>466</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>467</v>
+      </c>
+      <c r="J92" t="s">
+        <v>468</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>465</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>470</v>
+      </c>
+      <c r="J93" t="s">
+        <v>471</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>472</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>474</v>
+      </c>
+      <c r="J94" t="s">
+        <v>475</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>476</v>
+      </c>
+      <c r="O94" t="s">
+        <v>76</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>477</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>478</v>
+      </c>
+      <c r="J95" t="s">
+        <v>479</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>476</v>
+      </c>
+      <c r="O95" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>480</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>481</v>
+      </c>
+      <c r="J96" t="s">
+        <v>482</v>
+      </c>
+      <c r="K96" t="s">
+        <v>483</v>
+      </c>
+      <c r="L96" t="s">
+        <v>484</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>476</v>
+      </c>
+      <c r="O96" t="s">
+        <v>76</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>485</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>486</v>
+      </c>
+      <c r="J97" t="s">
+        <v>487</v>
+      </c>
+      <c r="K97" t="s">
+        <v>488</v>
+      </c>
+      <c r="L97" t="s">
+        <v>489</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>490</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>491</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>492</v>
+      </c>
+      <c r="J98" t="s">
+        <v>493</v>
+      </c>
+      <c r="K98" t="s">
+        <v>494</v>
+      </c>
+      <c r="L98" t="s">
+        <v>495</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>496</v>
+      </c>
+      <c r="O98" t="s">
+        <v>76</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>498</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>499</v>
+      </c>
+      <c r="J99" t="s">
+        <v>500</v>
+      </c>
+      <c r="K99" t="s">
+        <v>501</v>
+      </c>
+      <c r="L99" t="s">
+        <v>502</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>503</v>
+      </c>
+      <c r="O99" t="s">
+        <v>59</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>504</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>505</v>
+      </c>
+      <c r="J100" t="s">
+        <v>506</v>
+      </c>
+      <c r="K100" t="s">
+        <v>507</v>
+      </c>
+      <c r="L100" t="s">
+        <v>508</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>509</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
